--- a/source_plates/220616_source_plate2.xlsx
+++ b/source_plates/220616_source_plate2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA867D2-BB3E-486E-B77A-4B2AA8EDDF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE392157-95A6-4B40-87CA-110267E77C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Plasmid</t>
   </si>
@@ -196,6 +196,36 @@
   </si>
   <si>
     <t>pDA315_v2</t>
+  </si>
+  <si>
+    <t>pBT009.J1.119.DA9</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>119.DA9_low</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>need to add 14ul</t>
   </si>
 </sst>
 </file>
@@ -618,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,9 +842,6 @@
       <c r="E10">
         <v>40</v>
       </c>
-      <c r="G10" t="s">
-        <v>38</v>
-      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
@@ -832,10 +859,10 @@
         <v>133.6</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -855,164 +882,169 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>2.08</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>39.1</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>2.08</v>
       </c>
       <c r="E14">
-        <v>38.549999999999997</v>
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15">
-        <v>38.15</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16">
-        <v>37.6</v>
+        <v>38.15</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>30</v>
       </c>
       <c r="E17">
-        <v>39.799999999999997</v>
+        <v>37.6</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="9">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E18" s="7">
-        <v>40</v>
-      </c>
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="9">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E19" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>41.3</v>
       </c>
-      <c r="E19" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="E20" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>21.6</v>
-      </c>
-      <c r="E20" s="7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="9">
-        <v>20.6</v>
       </c>
       <c r="E21" s="7">
         <v>40</v>
@@ -1020,16 +1052,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="9">
-        <v>33.700000000000003</v>
+        <v>20.6</v>
       </c>
       <c r="E22" s="7">
         <v>40</v>
@@ -1037,19 +1069,162 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="9">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E23" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>34.6</v>
       </c>
-      <c r="E23" s="7">
-        <v>40</v>
+      <c r="E24" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f>_xlfn.CONCAT(B19,"_low")</f>
+        <v>pDA310_low</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="9">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>40</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f>_xlfn.CONCAT(B20,"_low")</f>
+        <v>pDA311_low</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="9">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>40</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f>_xlfn.CONCAT(B21,"_low")</f>
+        <v>pDA312_low</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="9">
+        <v>5</v>
+      </c>
+      <c r="E27" s="7">
+        <v>40</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f>_xlfn.CONCAT(B22,"_low")</f>
+        <v>pDA315_v2_low</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="9">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>40</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f>_xlfn.CONCAT(B23,"_low")</f>
+        <v>pDA316_low</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>40</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>_xlfn.CONCAT(B24,"_low")</f>
+        <v>pDA317_low</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="9">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>40</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/source_plates/220616_source_plate2.xlsx
+++ b/source_plates/220616_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE392157-95A6-4B40-87CA-110267E77C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720ECAA3-5570-E24C-9B43-532B11444B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Plasmid</t>
   </si>
@@ -147,9 +147,6 @@
     <t>B7</t>
   </si>
   <si>
-    <t>need to add</t>
-  </si>
-  <si>
     <t>pDA309_v2</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
   </si>
   <si>
     <t>D16</t>
-  </si>
-  <si>
-    <t>need to add 14ul</t>
   </si>
 </sst>
 </file>
@@ -650,19 +644,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -704,7 +698,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -718,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -735,7 +729,7 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -752,7 +746,7 @@
         <v>27.65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -769,7 +763,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -788,7 +782,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -807,7 +801,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -826,7 +820,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -845,15 +839,15 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
       <c r="D11">
         <v>133.6</v>
@@ -861,19 +855,16 @@
       <c r="E11">
         <v>54</v>
       </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="6">
         <v>353.9</v>
@@ -882,7 +873,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -901,15 +892,15 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
       </c>
       <c r="D14">
         <v>2.08</v>
@@ -917,13 +908,10 @@
       <c r="E14">
         <v>40</v>
       </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -942,7 +930,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -961,7 +949,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -980,7 +968,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
@@ -999,15 +987,15 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D19" s="9">
         <v>33.799999999999997</v>
@@ -1016,15 +1004,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D20" s="9">
         <v>41.3</v>
@@ -1033,15 +1021,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D21" s="9">
         <v>21.6</v>
@@ -1050,15 +1038,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="9">
         <v>20.6</v>
@@ -1067,15 +1055,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D23" s="9">
         <v>33.700000000000003</v>
@@ -1084,15 +1072,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D24" s="9">
         <v>34.6</v>
@@ -1101,16 +1089,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="8" t="str">
-        <f>_xlfn.CONCAT(B19,"_low")</f>
+        <f t="shared" ref="B25:B30" si="0">_xlfn.CONCAT(B19,"_low")</f>
         <v>pDA310_low</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="9">
         <v>5</v>
@@ -1118,20 +1106,18 @@
       <c r="E25" s="7">
         <v>40</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="8" t="str">
-        <f>_xlfn.CONCAT(B20,"_low")</f>
+        <f t="shared" si="0"/>
         <v>pDA311_low</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="9">
         <v>5</v>
@@ -1139,20 +1125,18 @@
       <c r="E26" s="7">
         <v>40</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="8" t="str">
-        <f>_xlfn.CONCAT(B21,"_low")</f>
+        <f t="shared" si="0"/>
         <v>pDA312_low</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="9">
         <v>5</v>
@@ -1160,20 +1144,18 @@
       <c r="E27" s="7">
         <v>40</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="8" t="str">
-        <f>_xlfn.CONCAT(B22,"_low")</f>
+        <f t="shared" si="0"/>
         <v>pDA315_v2_low</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="9">
         <v>5</v>
@@ -1181,20 +1163,18 @@
       <c r="E28" s="7">
         <v>40</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="8" t="str">
-        <f>_xlfn.CONCAT(B23,"_low")</f>
+        <f t="shared" si="0"/>
         <v>pDA316_low</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="9">
         <v>5</v>
@@ -1202,20 +1182,18 @@
       <c r="E29" s="7">
         <v>40</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8" t="str">
-        <f>_xlfn.CONCAT(B24,"_low")</f>
+        <f t="shared" si="0"/>
         <v>pDA317_low</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="9">
         <v>5</v>
@@ -1223,9 +1201,7 @@
       <c r="E30" s="7">
         <v>40</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="G30" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
